--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/51_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/51_455-55R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
-  </si>
-  <si>
-    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,454 +656,439 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.3966850952571163</v>
+      </c>
+      <c r="E2">
+        <v>0.07340807219789429</v>
+      </c>
+      <c r="F2">
+        <v>0.1234173875739932</v>
+      </c>
+      <c r="G2">
+        <v>0.005452763380927671</v>
+      </c>
+      <c r="H2">
+        <v>0.04655882591198395</v>
+      </c>
+      <c r="I2">
+        <v>0.06831403400845575</v>
+      </c>
+      <c r="J2">
+        <v>0.001781543527015529</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.08440226222725676</v>
+      </c>
+      <c r="N2">
+        <v>0.02245710118435075</v>
+      </c>
+      <c r="O2">
+        <v>0.05576192494876431</v>
+      </c>
+      <c r="P2">
+        <v>0.01534087875009338</v>
+      </c>
+      <c r="Q2">
+        <v>0.0389925769536983</v>
+      </c>
+      <c r="R2">
+        <v>0.02890521234023048</v>
+      </c>
+      <c r="S2">
+        <v>0.03005858411969797</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0.008463737618521318</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.1811435519263472</v>
-      </c>
-      <c r="E2">
-        <v>0.009316160306502454</v>
-      </c>
-      <c r="F2">
-        <v>0.2010525851117242</v>
-      </c>
-      <c r="G2">
-        <v>0.03145834454140034</v>
-      </c>
-      <c r="H2">
-        <v>0.0859089834946998</v>
-      </c>
-      <c r="I2">
-        <v>0.008095205408709109</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0.04550472331419719</v>
-      </c>
-      <c r="L2">
-        <v>0.01330009693577723</v>
-      </c>
-      <c r="M2">
-        <v>0.06774056254240343</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.04360571346702332</v>
-      </c>
-      <c r="P2">
-        <v>0.1937244977383105</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0.1051872775479908</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0.007797359641352123</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0.006164938023562178</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.05287209262126029</v>
+      </c>
+      <c r="E3">
+        <v>0.2589092316006522</v>
+      </c>
+      <c r="F3">
+        <v>0.1105343306610542</v>
+      </c>
+      <c r="G3">
+        <v>0.1029460226101539</v>
+      </c>
+      <c r="H3">
+        <v>0.003185353482731599</v>
+      </c>
+      <c r="I3">
+        <v>0.09163471758794793</v>
+      </c>
+      <c r="J3">
+        <v>0.03365939955676848</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.009451795512842353</v>
+      </c>
+      <c r="N3">
+        <v>0.06420264677886012</v>
+      </c>
+      <c r="O3">
+        <v>0.02959912692492676</v>
+      </c>
+      <c r="P3">
+        <v>0.05852746589255445</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.07626245564294007</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.09898902267904222</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.0007743736521005326</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.008451964796164941</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.08998202977656139</v>
-      </c>
-      <c r="E3">
-        <v>0.1338324908650348</v>
-      </c>
-      <c r="F3">
-        <v>0.3264599260158483</v>
-      </c>
-      <c r="G3">
-        <v>0.02527205564436814</v>
-      </c>
-      <c r="H3">
-        <v>0.02884738546717558</v>
-      </c>
-      <c r="I3">
-        <v>0.006231418202691876</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.04656976059326211</v>
-      </c>
-      <c r="N3">
-        <v>0.003754004880391086</v>
-      </c>
-      <c r="O3">
-        <v>0.006369942228464359</v>
-      </c>
-      <c r="P3">
-        <v>0.1483655530225822</v>
-      </c>
-      <c r="Q3">
-        <v>0.004842568737515367</v>
-      </c>
-      <c r="R3">
-        <v>0.07630433114304561</v>
-      </c>
-      <c r="S3">
-        <v>0.03816950395917588</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0.02082600240543147</v>
-      </c>
-      <c r="Y3">
-        <v>0.001665447083112227</v>
-      </c>
-      <c r="Z3">
-        <v>0.0004923665354176646</v>
-      </c>
-      <c r="AA3">
-        <v>0.02427883158089236</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0.01773638185902971</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.04450814198780472</v>
+      </c>
+      <c r="E4">
+        <v>0.2439977664929053</v>
+      </c>
+      <c r="F4">
+        <v>0.1706137562844698</v>
+      </c>
+      <c r="G4">
+        <v>0.0978119478697622</v>
+      </c>
+      <c r="H4">
+        <v>0.008218805467305275</v>
+      </c>
+      <c r="I4">
+        <v>0.08669450184097142</v>
+      </c>
+      <c r="J4">
+        <v>0.04004995774838552</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.01144046656020129</v>
+      </c>
+      <c r="N4">
+        <v>0.0575634271056786</v>
+      </c>
+      <c r="O4">
+        <v>0.01783200429529266</v>
+      </c>
+      <c r="P4">
+        <v>0.05892531600080149</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.07597193546093486</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.06395918067122049</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.004542132052364293</v>
+      </c>
+      <c r="AE4">
+        <v>0.01476483394038115</v>
+      </c>
+      <c r="AF4">
+        <v>0.003105826221520902</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.003583621028066395</v>
-      </c>
-      <c r="E4">
-        <v>0.2587782657676923</v>
-      </c>
-      <c r="F4">
-        <v>0.1425581228677392</v>
-      </c>
-      <c r="G4">
-        <v>0.07109037717135615</v>
-      </c>
-      <c r="H4">
-        <v>0.04485901163006848</v>
-      </c>
-      <c r="I4">
-        <v>0.02864700980879237</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.05497789896731796</v>
-      </c>
-      <c r="L4">
-        <v>0.005755054952078799</v>
-      </c>
-      <c r="M4">
-        <v>0.03053889852826559</v>
-      </c>
-      <c r="N4">
-        <v>0.01959962402452297</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0.1835952202584066</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.1540364486225093</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0.001980446373183933</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.2317329609086746</v>
+      </c>
+      <c r="E5">
+        <v>0.01170466106009448</v>
+      </c>
+      <c r="F5">
+        <v>0.2649729984321059</v>
+      </c>
+      <c r="G5">
+        <v>0.06281743792346821</v>
+      </c>
+      <c r="H5">
+        <v>0.009292434981503643</v>
+      </c>
+      <c r="I5">
+        <v>0.07255515830715882</v>
+      </c>
+      <c r="J5">
+        <v>0.01989593753307566</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.1332142367769221</v>
+      </c>
+      <c r="N5">
+        <v>0.02475781907567404</v>
+      </c>
+      <c r="O5">
+        <v>0.01101032176707136</v>
+      </c>
+      <c r="P5">
+        <v>0.04728785025622611</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.05120330247964101</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.0007568161268148893</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>8.452441293021465E-05</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.00820505300963556</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.04464229468810305</v>
+      </c>
+      <c r="AE5">
+        <v>0.005866192260900499</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.2100262200267631</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.1831355023249108</v>
-      </c>
-      <c r="G5">
-        <v>0.05170601472930404</v>
-      </c>
-      <c r="H5">
-        <v>0.07531233250480017</v>
-      </c>
-      <c r="I5">
-        <v>0.001215943094987203</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0.02943893810326729</v>
-      </c>
-      <c r="L5">
-        <v>0.009310019696327563</v>
-      </c>
-      <c r="M5">
-        <v>0.08013640094626159</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.04278807937289045</v>
-      </c>
-      <c r="P5">
-        <v>0.188164921075956</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0.1212251315524002</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0.003315982381709649</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0.004224514190421797</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1114,55 +1096,55 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03805501146719636</v>
       </c>
       <c r="E6">
-        <v>0.2659551940545829</v>
+        <v>0.2267380255414504</v>
       </c>
       <c r="F6">
-        <v>0.1583131664833482</v>
+        <v>0.104722312061955</v>
       </c>
       <c r="G6">
-        <v>0.07690656275541022</v>
+        <v>0.1147664063805396</v>
       </c>
       <c r="H6">
-        <v>0.05525486747094241</v>
+        <v>0.02884726293371026</v>
       </c>
       <c r="I6">
-        <v>0.0253837366350721</v>
+        <v>0.09399243745294783</v>
       </c>
       <c r="J6">
-        <v>0.006591238131961781</v>
+        <v>0.03328989730703729</v>
       </c>
       <c r="K6">
-        <v>0.0458310038727204</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0006455947527922095</v>
       </c>
       <c r="M6">
-        <v>0.01051483876344519</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.03683909674025296</v>
+        <v>0.08080881588440104</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.04429487852195369</v>
       </c>
       <c r="P6">
-        <v>0.1571572767149673</v>
+        <v>0.06576574229156062</v>
       </c>
       <c r="Q6">
-        <v>0.01327963174575682</v>
+        <v>0.01407809452326945</v>
       </c>
       <c r="R6">
-        <v>0.1258400449456436</v>
+        <v>0.05326106065055083</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.01035362388352389</v>
+        <v>0.08371115888020184</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1174,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.01185070516501977</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1192,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0117797178023723</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.005172596185414003</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1207,9 +1189,6 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +1199,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1332,13 +1311,10 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1347,82 +1323,82 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1811435519263472</v>
+        <v>0.3966850952571163</v>
       </c>
       <c r="E2">
-        <v>0.1904597122328496</v>
+        <v>0.4700931674550106</v>
       </c>
       <c r="F2">
-        <v>0.3915122973445738</v>
+        <v>0.5935105550290037</v>
       </c>
       <c r="G2">
-        <v>0.4229706418859741</v>
+        <v>0.5989633184099314</v>
       </c>
       <c r="H2">
-        <v>0.5088796253806739</v>
+        <v>0.6455221443219153</v>
       </c>
       <c r="I2">
-        <v>0.516974830789383</v>
+        <v>0.7138361783303711</v>
       </c>
       <c r="J2">
-        <v>0.516974830789383</v>
+        <v>0.7156177218573866</v>
       </c>
       <c r="K2">
-        <v>0.5624795541035802</v>
+        <v>0.7156177218573866</v>
       </c>
       <c r="L2">
-        <v>0.5757796510393575</v>
+        <v>0.7156177218573866</v>
       </c>
       <c r="M2">
-        <v>0.6435202135817609</v>
+        <v>0.8000199840846434</v>
       </c>
       <c r="N2">
-        <v>0.6435202135817609</v>
+        <v>0.8224770852689941</v>
       </c>
       <c r="O2">
-        <v>0.6871259270487843</v>
+        <v>0.8782390102177584</v>
       </c>
       <c r="P2">
-        <v>0.8808504247870947</v>
+        <v>0.8935798889678518</v>
       </c>
       <c r="Q2">
-        <v>0.8808504247870947</v>
+        <v>0.9325724659215501</v>
       </c>
       <c r="R2">
-        <v>0.9860377023350856</v>
+        <v>0.9614776782617805</v>
       </c>
       <c r="S2">
-        <v>0.9860377023350856</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="T2">
-        <v>0.9860377023350856</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="U2">
-        <v>0.9860377023350856</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="V2">
-        <v>0.9860377023350856</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="W2">
-        <v>0.9860377023350856</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="X2">
-        <v>0.9938350619764377</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="Y2">
-        <v>0.9938350619764377</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="Z2">
-        <v>0.9938350619764377</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="AA2">
-        <v>0.9938350619764377</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="AB2">
-        <v>0.9938350619764377</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="AC2">
-        <v>0.9938350619764377</v>
+        <v>0.9915362623814785</v>
       </c>
       <c r="AD2">
         <v>0.9999999999999999</v>
@@ -1442,13 +1418,10 @@
       <c r="AI2">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ2">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1457,88 +1430,88 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08998202977656139</v>
+        <v>0.05287209262126029</v>
       </c>
       <c r="E3">
-        <v>0.2238145206415962</v>
+        <v>0.3117813242219125</v>
       </c>
       <c r="F3">
-        <v>0.5502744466574445</v>
+        <v>0.4223156548829667</v>
       </c>
       <c r="G3">
-        <v>0.5755465023018127</v>
+        <v>0.5252616774931206</v>
       </c>
       <c r="H3">
-        <v>0.6043938877689883</v>
+        <v>0.5284470309758522</v>
       </c>
       <c r="I3">
-        <v>0.6106253059716802</v>
+        <v>0.6200817485638002</v>
       </c>
       <c r="J3">
-        <v>0.6106253059716802</v>
+        <v>0.6537411481205686</v>
       </c>
       <c r="K3">
-        <v>0.6106253059716802</v>
+        <v>0.6537411481205686</v>
       </c>
       <c r="L3">
-        <v>0.6106253059716802</v>
+        <v>0.6537411481205686</v>
       </c>
       <c r="M3">
-        <v>0.6571950665649423</v>
+        <v>0.663192943633411</v>
       </c>
       <c r="N3">
-        <v>0.6609490714453334</v>
+        <v>0.7273955904122711</v>
       </c>
       <c r="O3">
-        <v>0.6673190136737978</v>
+        <v>0.7569947173371978</v>
       </c>
       <c r="P3">
-        <v>0.8156845666963799</v>
+        <v>0.8155221832297522</v>
       </c>
       <c r="Q3">
-        <v>0.8205271354338952</v>
+        <v>0.8155221832297522</v>
       </c>
       <c r="R3">
-        <v>0.8968314665769408</v>
+        <v>0.8917846388726923</v>
       </c>
       <c r="S3">
-        <v>0.9350009705361166</v>
+        <v>0.8917846388726923</v>
       </c>
       <c r="T3">
-        <v>0.9350009705361166</v>
+        <v>0.9907736615517345</v>
       </c>
       <c r="U3">
-        <v>0.9350009705361166</v>
+        <v>0.9907736615517345</v>
       </c>
       <c r="V3">
-        <v>0.9350009705361166</v>
+        <v>0.9915480352038351</v>
       </c>
       <c r="W3">
-        <v>0.9350009705361166</v>
+        <v>0.9915480352038351</v>
       </c>
       <c r="X3">
-        <v>0.9558269729415481</v>
+        <v>0.9915480352038351</v>
       </c>
       <c r="Y3">
-        <v>0.9574924200246603</v>
+        <v>0.9915480352038351</v>
       </c>
       <c r="Z3">
-        <v>0.9579847865600779</v>
+        <v>0.9915480352038351</v>
       </c>
       <c r="AA3">
-        <v>0.9822636181409703</v>
+        <v>0.9915480352038351</v>
       </c>
       <c r="AB3">
-        <v>0.9822636181409703</v>
+        <v>0.9915480352038351</v>
       </c>
       <c r="AC3">
-        <v>0.9822636181409703</v>
+        <v>0.9915480352038351</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9915480352038351</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9915480352038351</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1552,234 +1525,225 @@
       <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AJ3">
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.04450814198780472</v>
+      </c>
+      <c r="E4">
+        <v>0.28850590848071</v>
+      </c>
+      <c r="F4">
+        <v>0.4591196647651797</v>
+      </c>
+      <c r="G4">
+        <v>0.556931612634942</v>
+      </c>
+      <c r="H4">
+        <v>0.5651504181022472</v>
+      </c>
+      <c r="I4">
+        <v>0.6518449199432186</v>
+      </c>
+      <c r="J4">
+        <v>0.6918948776916041</v>
+      </c>
+      <c r="K4">
+        <v>0.6918948776916041</v>
+      </c>
+      <c r="L4">
+        <v>0.6918948776916041</v>
+      </c>
+      <c r="M4">
+        <v>0.7033353442518053</v>
+      </c>
+      <c r="N4">
+        <v>0.760898771357484</v>
+      </c>
+      <c r="O4">
+        <v>0.7787307756527766</v>
+      </c>
+      <c r="P4">
+        <v>0.8376560916535781</v>
+      </c>
+      <c r="Q4">
+        <v>0.8376560916535781</v>
+      </c>
+      <c r="R4">
+        <v>0.913628027114513</v>
+      </c>
+      <c r="S4">
+        <v>0.913628027114513</v>
+      </c>
+      <c r="T4">
+        <v>0.9775872077857335</v>
+      </c>
+      <c r="U4">
+        <v>0.9775872077857335</v>
+      </c>
+      <c r="V4">
+        <v>0.9775872077857335</v>
+      </c>
+      <c r="W4">
+        <v>0.9775872077857335</v>
+      </c>
+      <c r="X4">
+        <v>0.9775872077857335</v>
+      </c>
+      <c r="Y4">
+        <v>0.9775872077857335</v>
+      </c>
+      <c r="Z4">
+        <v>0.9775872077857335</v>
+      </c>
+      <c r="AA4">
+        <v>0.9775872077857335</v>
+      </c>
+      <c r="AB4">
+        <v>0.9775872077857335</v>
+      </c>
+      <c r="AC4">
+        <v>0.9775872077857335</v>
+      </c>
+      <c r="AD4">
+        <v>0.9821293398380978</v>
+      </c>
+      <c r="AE4">
+        <v>0.996894173778479</v>
+      </c>
+      <c r="AF4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AI4">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.2317329609086746</v>
+      </c>
+      <c r="E5">
+        <v>0.2434376219687691</v>
+      </c>
+      <c r="F5">
+        <v>0.5084106204008749</v>
+      </c>
+      <c r="G5">
+        <v>0.5712280583243431</v>
+      </c>
+      <c r="H5">
+        <v>0.5805204933058468</v>
+      </c>
+      <c r="I5">
+        <v>0.6530756516130056</v>
+      </c>
+      <c r="J5">
+        <v>0.6729715891460812</v>
+      </c>
+      <c r="K5">
+        <v>0.6729715891460812</v>
+      </c>
+      <c r="L5">
+        <v>0.6729715891460812</v>
+      </c>
+      <c r="M5">
+        <v>0.8061858259230034</v>
+      </c>
+      <c r="N5">
+        <v>0.8309436449986775</v>
+      </c>
+      <c r="O5">
+        <v>0.8419539667657489</v>
+      </c>
+      <c r="P5">
+        <v>0.8892418170219749</v>
+      </c>
+      <c r="Q5">
+        <v>0.8892418170219749</v>
+      </c>
+      <c r="R5">
+        <v>0.9404451195016159</v>
+      </c>
+      <c r="S5">
+        <v>0.9404451195016159</v>
+      </c>
+      <c r="T5">
+        <v>0.9412019356284308</v>
+      </c>
+      <c r="U5">
+        <v>0.9412019356284308</v>
+      </c>
+      <c r="V5">
+        <v>0.9412019356284308</v>
+      </c>
+      <c r="W5">
+        <v>0.9412019356284308</v>
+      </c>
+      <c r="X5">
+        <v>0.941286460041361</v>
+      </c>
+      <c r="Y5">
+        <v>0.941286460041361</v>
+      </c>
+      <c r="Z5">
+        <v>0.941286460041361</v>
+      </c>
+      <c r="AA5">
+        <v>0.9494915130509965</v>
+      </c>
+      <c r="AB5">
+        <v>0.9494915130509965</v>
+      </c>
+      <c r="AC5">
+        <v>0.9494915130509965</v>
+      </c>
+      <c r="AD5">
+        <v>0.9941338077390995</v>
+      </c>
+      <c r="AE5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.003583621028066395</v>
-      </c>
-      <c r="E4">
-        <v>0.2623618867957587</v>
-      </c>
-      <c r="F4">
-        <v>0.4049200096634978</v>
-      </c>
-      <c r="G4">
-        <v>0.476010386834854</v>
-      </c>
-      <c r="H4">
-        <v>0.5208693984649224</v>
-      </c>
-      <c r="I4">
-        <v>0.5495164082737148</v>
-      </c>
-      <c r="J4">
-        <v>0.5495164082737148</v>
-      </c>
-      <c r="K4">
-        <v>0.6044943072410328</v>
-      </c>
-      <c r="L4">
-        <v>0.6102493621931117</v>
-      </c>
-      <c r="M4">
-        <v>0.6407882607213773</v>
-      </c>
-      <c r="N4">
-        <v>0.6603878847459003</v>
-      </c>
-      <c r="O4">
-        <v>0.6603878847459003</v>
-      </c>
-      <c r="P4">
-        <v>0.8439831050043068</v>
-      </c>
-      <c r="Q4">
-        <v>0.8439831050043068</v>
-      </c>
-      <c r="R4">
-        <v>0.9980195536268162</v>
-      </c>
-      <c r="S4">
-        <v>0.9980195536268162</v>
-      </c>
-      <c r="T4">
+      <c r="AF5">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="AG5">
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="AH5">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="AI5">
         <v>1</v>
       </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.2100262200267631</v>
-      </c>
-      <c r="E5">
-        <v>0.2100262200267631</v>
-      </c>
-      <c r="F5">
-        <v>0.3931617223516739</v>
-      </c>
-      <c r="G5">
-        <v>0.4448677370809779</v>
-      </c>
-      <c r="H5">
-        <v>0.5201800695857781</v>
-      </c>
-      <c r="I5">
-        <v>0.5213960126807653</v>
-      </c>
-      <c r="J5">
-        <v>0.5213960126807653</v>
-      </c>
-      <c r="K5">
-        <v>0.5508349507840326</v>
-      </c>
-      <c r="L5">
-        <v>0.5601449704803602</v>
-      </c>
-      <c r="M5">
-        <v>0.6402813714266218</v>
-      </c>
-      <c r="N5">
-        <v>0.6402813714266218</v>
-      </c>
-      <c r="O5">
-        <v>0.6830694507995122</v>
-      </c>
-      <c r="P5">
-        <v>0.8712343718754681</v>
-      </c>
-      <c r="Q5">
-        <v>0.8712343718754681</v>
-      </c>
-      <c r="R5">
-        <v>0.9924595034278684</v>
-      </c>
-      <c r="S5">
-        <v>0.9924595034278684</v>
-      </c>
-      <c r="T5">
-        <v>0.9924595034278684</v>
-      </c>
-      <c r="U5">
-        <v>0.9924595034278684</v>
-      </c>
-      <c r="V5">
-        <v>0.9924595034278684</v>
-      </c>
-      <c r="W5">
-        <v>0.9924595034278684</v>
-      </c>
-      <c r="X5">
-        <v>0.995775485809578</v>
-      </c>
-      <c r="Y5">
-        <v>0.995775485809578</v>
-      </c>
-      <c r="Z5">
-        <v>0.995775485809578</v>
-      </c>
-      <c r="AA5">
-        <v>0.995775485809578</v>
-      </c>
-      <c r="AB5">
-        <v>0.995775485809578</v>
-      </c>
-      <c r="AC5">
-        <v>0.995775485809578</v>
-      </c>
-      <c r="AD5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AE5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AF5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AG5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AH5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AI5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1787,88 +1751,88 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03805501146719636</v>
       </c>
       <c r="E6">
-        <v>0.2659551940545829</v>
+        <v>0.2647930370086468</v>
       </c>
       <c r="F6">
-        <v>0.4242683605379312</v>
+        <v>0.3695153490706017</v>
       </c>
       <c r="G6">
-        <v>0.5011749232933413</v>
+        <v>0.4842817554511413</v>
       </c>
       <c r="H6">
-        <v>0.5564297907642838</v>
+        <v>0.5131290183848516</v>
       </c>
       <c r="I6">
-        <v>0.5818135273993559</v>
+        <v>0.6071214558377994</v>
       </c>
       <c r="J6">
-        <v>0.5884047655313177</v>
+        <v>0.6404113531448367</v>
       </c>
       <c r="K6">
-        <v>0.6342357694040381</v>
+        <v>0.6404113531448367</v>
       </c>
       <c r="L6">
-        <v>0.6342357694040381</v>
+        <v>0.6410569478976289</v>
       </c>
       <c r="M6">
-        <v>0.6447506081674833</v>
+        <v>0.6410569478976289</v>
       </c>
       <c r="N6">
-        <v>0.6815897049077363</v>
+        <v>0.7218657637820299</v>
       </c>
       <c r="O6">
-        <v>0.6815897049077363</v>
+        <v>0.7661606423039836</v>
       </c>
       <c r="P6">
-        <v>0.8387469816227036</v>
+        <v>0.8319263845955442</v>
       </c>
       <c r="Q6">
-        <v>0.8520266133684604</v>
+        <v>0.8460044791188137</v>
       </c>
       <c r="R6">
-        <v>0.977866658314104</v>
+        <v>0.8992655397693645</v>
       </c>
       <c r="S6">
-        <v>0.977866658314104</v>
+        <v>0.8992655397693645</v>
       </c>
       <c r="T6">
-        <v>0.9882202821976279</v>
+        <v>0.9829766986495664</v>
       </c>
       <c r="U6">
-        <v>0.9882202821976279</v>
+        <v>0.9829766986495664</v>
       </c>
       <c r="V6">
-        <v>0.9882202821976279</v>
+        <v>0.9829766986495664</v>
       </c>
       <c r="W6">
-        <v>0.9882202821976279</v>
+        <v>0.9829766986495664</v>
       </c>
       <c r="X6">
-        <v>0.9882202821976279</v>
+        <v>0.9948274038145861</v>
       </c>
       <c r="Y6">
-        <v>0.9882202821976279</v>
+        <v>0.9948274038145861</v>
       </c>
       <c r="Z6">
-        <v>0.9882202821976279</v>
+        <v>0.9948274038145861</v>
       </c>
       <c r="AA6">
-        <v>0.9882202821976279</v>
+        <v>0.9948274038145861</v>
       </c>
       <c r="AB6">
-        <v>0.9882202821976279</v>
+        <v>0.9948274038145861</v>
       </c>
       <c r="AC6">
-        <v>0.9882202821976279</v>
+        <v>0.9948274038145861</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9948274038145861</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9948274038145861</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1880,9 +1844,6 @@
         <v>1</v>
       </c>
       <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
         <v>1</v>
       </c>
     </row>
@@ -1901,48 +1862,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1951,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5088796253806739</v>
+        <v>0.5935105550290037</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -1969,21 +1930,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1992,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5252616774931206</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5502744466574445</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -2010,21 +1971,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -2033,16 +1994,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5208693984649224</v>
+        <v>0.556931612634942</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -2051,21 +2012,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2074,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5201800695857781</v>
+        <v>0.5084106204008749</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -2092,21 +2053,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2115,16 +2076,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5011749232933413</v>
+        <v>0.5131290183848516</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -2133,16 +2094,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2160,48 +2121,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2210,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8808504247870947</v>
+        <v>0.7138361783303711</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -2228,21 +2189,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2251,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8156845666963799</v>
+        <v>0.7273955904122711</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -2269,21 +2230,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2292,16 +2253,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8439831050043068</v>
+        <v>0.7033353442518053</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -2310,21 +2271,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2333,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8712343718754681</v>
+        <v>0.8061858259230034</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -2351,21 +2312,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -2374,16 +2335,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8387469816227036</v>
+        <v>0.7218657637820299</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -2392,16 +2353,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2419,48 +2380,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2469,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8808504247870947</v>
+        <v>0.8000199840846434</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -2487,21 +2448,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2516,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8156845666963799</v>
+        <v>0.8155221832297522</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -2528,21 +2489,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2557,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8439831050043068</v>
+        <v>0.8376560916535781</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2569,21 +2530,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2592,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8712343718754681</v>
+        <v>0.8061858259230034</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>51</v>
@@ -2610,21 +2571,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2639,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8387469816227036</v>
+        <v>0.8319263845955442</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2651,16 +2612,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2678,48 +2639,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2728,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9860377023350856</v>
+        <v>0.9325724659215501</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -2746,21 +2707,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2769,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9907736615517345</v>
+      </c>
+      <c r="G3">
         <v>18</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9350009705361166</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -2787,21 +2748,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2816,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9980195536268162</v>
+        <v>0.913628027114513</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -2828,21 +2789,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2857,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9924595034278684</v>
+        <v>0.9404451195016159</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -2869,21 +2830,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -2892,16 +2853,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9829766986495664</v>
+      </c>
+      <c r="G6">
         <v>17</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.977866658314104</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
       </c>
       <c r="H6">
         <v>51</v>
@@ -2910,16 +2871,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
